--- a/IntelligentProcessAutomationNLP/Automation/RegrasEmails.xlsx
+++ b/IntelligentProcessAutomationNLP/Automation/RegrasEmails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupecgi-my.sharepoint.com/personal/brunofilipe_lobo_cgi_com/Documents/Code/realvidaseguros/IntelligentProcessAutomationNLP/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048DA19DC7D545ADE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55BD782B-BB89-409D-9E63-739525856B0D}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048DA19DC7D545ADE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C52A7116-C265-43EE-8BD2-8D4C462C4173}"/>
   <bookViews>
-    <workbookView xWindow="-4860" yWindow="-16320" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33150" yWindow="1515" windowWidth="23175" windowHeight="13860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegrasEmailsPreTratamento" sheetId="3" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
-  <si>
-    <t>Tratamento Manual - Recorrências</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>NA</t>
   </si>
@@ -43,9 +40,6 @@
     <t>Clientes Real Vida &lt;info.clientes@realvidaseguros.pt&gt;</t>
   </si>
   <si>
-    <t>Tratamento Manual - Contacto Click to Call</t>
-  </si>
-  <si>
     <t>Contacto Click to Call</t>
   </si>
   <si>
@@ -122,6 +116,9 @@
   </si>
   <si>
     <t>Real Vida Seguros &lt;gisdoc@realvidaseguros.pt&gt;</t>
+  </si>
+  <si>
+    <t>Tratamento Manual</t>
   </si>
 </sst>
 </file>
@@ -483,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9BA40E-A7F4-4EB9-B520-B332B2023FD0}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,184 +497,184 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -689,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB813F45-0FCB-47C6-A360-243D4C8B026C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,53 +701,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
